--- a/Excel_Formulas.xlsx
+++ b/Excel_Formulas.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naseema\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB7E1C9-379A-482F-B887-6C5BBF1CDB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E55086D-0B33-4EEA-BB32-912C75AA458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90CD5B69-37B6-4A15-8074-E57AE79DA588}"/>
   </bookViews>
   <sheets>
     <sheet name="CONDITIONAL FORMATING" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Functions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Roll_No</t>
   </si>
@@ -109,42 +109,6 @@
     <t>Aman Verma</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Passed?</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
     <t>IF</t>
   </si>
   <si>
@@ -155,13 +119,97 @@
   </si>
   <si>
     <t>Low Marks</t>
+  </si>
+  <si>
+    <t>Conditional Formating</t>
+  </si>
+  <si>
+    <t>Student_ID</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>Sur Name</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>sowmi</t>
+  </si>
+  <si>
+    <t>rao</t>
+  </si>
+  <si>
+    <t>hegde</t>
+  </si>
+  <si>
+    <t>babu</t>
+  </si>
+  <si>
+    <t>sharma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +238,16 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +272,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +317,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,49 +357,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -303,17 +436,7 @@
       <font>
         <b/>
         <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF7030A0"/>
       </font>
     </dxf>
   </dxfs>
@@ -626,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426912C8-C9A3-4DAE-A0EE-6DF045B49566}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,199 +764,211 @@
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="6">
         <v>18</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3" s="6">
         <v>65</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D4" s="6">
         <v>20</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E4" s="6">
         <v>72</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D5" s="6">
         <v>22</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="6">
         <v>80</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="6">
         <v>15</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="6">
         <v>60</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="6">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="6">
         <v>70</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="6">
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="6">
         <v>55</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="6">
         <v>21</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="6">
         <v>78</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="6">
         <v>23</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="6">
         <v>85</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:E9">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula xml:space="preserve"> D2 &lt; 15</formula>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:E10">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula xml:space="preserve"> D3 &gt; 20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula xml:space="preserve"> D2 &lt; 15</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula xml:space="preserve"> AND(D3 &gt;= 15, D3 &lt;= 20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula xml:space="preserve"> AND(D2 &gt;= 15, D2 &lt;= 20)</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula xml:space="preserve"> D3 &lt; 15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula xml:space="preserve"> D2 &gt; 20</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula xml:space="preserve"> D3 &lt; 15</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -842,135 +977,336 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600FAA61-D997-40A3-8FF5-7BF7029E83F3}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="21" t="str">
+        <f>IF(E2&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I2" s="14">
+        <f>COUNTIF(E2:E9,"&gt;50")</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="13">
+        <f>SUMIF(E2:E9,"&gt;50")</f>
+        <v>373</v>
+      </c>
+      <c r="K2" s="17">
+        <f>AVERAGE(E2:E9)</f>
+        <v>61.625</v>
+      </c>
+      <c r="L2" s="19" t="str">
+        <f>_xlfn.CONCAT(B2,"-",C2)</f>
+        <v>Rahul-raj</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3">
-        <v>92</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="21" t="str">
+        <f>IF(E3&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="19" t="str">
+        <f t="shared" ref="L3:L9" si="0">_xlfn.CONCAT(B3,"-",C3)</f>
+        <v>Anita-kumari</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="21" t="str">
+        <f>IF(E4&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Kiran-patel</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="21" t="str">
+        <f>IF(E5&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sneha-sowmi</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="21" t="str">
+        <f>IF(E6&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Arjun-rao</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="21" t="str">
+        <f>IF(E7&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Pooja-hegde</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
+        <v>91</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="21" t="str">
+        <f>IF(E8&gt;=50,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ramesh-babu</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3">
-        <v>58</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3">
-        <v>95</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3">
+      <c r="E9" s="1">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3">
-        <v>80</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="21" t="str">
+        <f>IF(E9&gt;=50,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Divya-sharma</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
